--- a/server/src/input/vreemde_valuta _demo.xlsx
+++ b/server/src/input/vreemde_valuta _demo.xlsx
@@ -39623,26 +39623,34 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3317b065-cc0b-4f36-bba1-fbc63d26622d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="19992074-8184-4047-a882-683a11fb703e" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009B265ABB92E487429F6889883FC6B8F6" ma:contentTypeVersion="5" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="6de93a84872d30fa08f4d1cc769bc1dd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="42ad1fe9-66b2-40df-a478-7f3256f2be5c" xmlns:ns3="d5a662fd-747e-486c-bced-96072575dcf0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6d1162166efbe1080fe5680cc228348" ns2:_="" ns3:_="">
-    <xsd:import namespace="42ad1fe9-66b2-40df-a478-7f3256f2be5c"/>
-    <xsd:import namespace="d5a662fd-747e-486c-bced-96072575dcf0"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002C4E9DA021791D40B16A5F18810F73D2" ma:contentTypeVersion="9" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="082a40db6a4cadaeba97bed60b168cf6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3317b065-cc0b-4f36-bba1-fbc63d26622d" xmlns:ns3="19992074-8184-4047-a882-683a11fb703e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d26161bfe09539b7851309902fb44afd" ns2:_="" ns3:_="">
+    <xsd:import namespace="3317b065-cc0b-4f36-bba1-fbc63d26622d"/>
+    <xsd:import namespace="19992074-8184-4047-a882-683a11fb703e"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -39650,53 +39658,62 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="42ad1fe9-66b2-40df-a478-7f3256f2be5c" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3317b065-cc0b-4f36-bba1-fbc63d26622d" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="4bc83cbe-60d4-4732-8759-e77f608a3e2b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="13" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d5a662fd-747e-486c-bced-96072575dcf0" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="19992074-8184-4047-a882-683a11fb703e" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Gedeeld met" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{b19d8058-382d-4df1-8dc9-741e95daa3af}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="19992074-8184-4047-a882-683a11fb703e">
       <xsd:complexType>
         <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
+          <xsd:extension base="dms:MultiChoiceLookup">
             <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
             </xsd:sequence>
           </xsd:extension>
         </xsd:complexContent>
       </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Gedeeld met details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -39825,22 +39842,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0D91466-8995-4973-AE04-74C0C6E43B28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="42ad1fe9-66b2-40df-a478-7f3256f2be5c"/>
-    <ds:schemaRef ds:uri="d5a662fd-747e-486c-bced-96072575dcf0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31E8538C-0E04-48FA-B473-315C43F748F4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
